--- a/python/week_report/技术工作周报-网利宝技术团队张志杰20190125.xlsx
+++ b/python/week_report/技术工作周报-网利宝技术团队张志杰20190125.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="13050" windowWidth="28695" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="12240" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6月第一周" sheetId="1" state="hidden" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>瀚华互联网金融技术支持部工作周报</t>
   </si>
@@ -352,16 +352,31 @@
     <t>进度及说明</t>
   </si>
   <si>
-    <t>crm复投增量业绩报表查看，导出，定时核算脚本完成</t>
-  </si>
-  <si>
-    <t>crm散户入库工具功能修复渠道数据为空不能导入问题</t>
-  </si>
-  <si>
-    <t>crm线上手动执行用户T+2脚本</t>
-  </si>
-  <si>
-    <t>crm更新导入指定渠道脚本</t>
+    <t>crm优化ajax没权限提示信息</t>
+  </si>
+  <si>
+    <t>1/21</t>
+  </si>
+  <si>
+    <t>划外绩效申请新功能规划</t>
+  </si>
+  <si>
+    <t>1/22</t>
+  </si>
+  <si>
+    <t>划外绩效申请申请表单完成</t>
+  </si>
+  <si>
+    <t>1/23</t>
+  </si>
+  <si>
+    <t>划外绩效申请申请表单列表页完成</t>
+  </si>
+  <si>
+    <t>1/24</t>
+  </si>
+  <si>
+    <t>1/25</t>
   </si>
 </sst>
 </file>
@@ -1128,6 +1143,39 @@
     <xf applyAlignment="1" borderId="28" fillId="4" fontId="3" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="10" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="4" fontId="3" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="3" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,40 +1185,13 @@
     <xf applyAlignment="1" borderId="6" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="22" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="23" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="3" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="23" fillId="4" fontId="3" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="19" fillId="4" fontId="8" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="19" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1182,14 +1203,8 @@
     <xf applyAlignment="1" borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="19" fillId="8" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="19" fillId="4" fontId="8" numFmtId="58" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="8" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1529,7 +1544,7 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="33" r="2" s="26" spans="1:11">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="98" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1537,7 +1552,7 @@
       <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="99" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="35" t="n"/>
@@ -1553,19 +1568,19 @@
       </c>
     </row>
     <row customHeight="1" ht="24" r="4" s="26" spans="1:11">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="100" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="100" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -1576,7 +1591,7 @@
       </c>
     </row>
     <row customHeight="1" ht="30.75" r="5" s="26" spans="1:11">
-      <c r="D5" s="98" t="n">
+      <c r="D5" s="96" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="113" t="s">
@@ -1594,7 +1609,7 @@
       </c>
     </row>
     <row customHeight="1" ht="32.25" r="6" s="26" spans="1:11">
-      <c r="D6" s="98" t="n">
+      <c r="D6" s="96" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="113" t="s">
@@ -1612,7 +1627,7 @@
       </c>
     </row>
     <row customHeight="1" ht="32.25" r="7" s="26" spans="1:11">
-      <c r="D7" s="98" t="n">
+      <c r="D7" s="96" t="n">
         <v>3</v>
       </c>
       <c r="E7" s="113" t="s">
@@ -1632,7 +1647,7 @@
       </c>
     </row>
     <row customHeight="1" ht="32.25" r="8" s="26" spans="1:11">
-      <c r="D8" s="98" t="n">
+      <c r="D8" s="96" t="n">
         <v>4</v>
       </c>
       <c r="E8" s="113" t="s">
@@ -1650,7 +1665,7 @@
       </c>
     </row>
     <row customHeight="1" ht="32.25" r="9" s="26" spans="1:11">
-      <c r="D9" s="98" t="n">
+      <c r="D9" s="96" t="n">
         <v>5</v>
       </c>
       <c r="E9" s="113" t="s">
@@ -1666,7 +1681,7 @@
       </c>
     </row>
     <row customHeight="1" ht="32.25" r="10" s="26" spans="1:11">
-      <c r="D10" s="98" t="n">
+      <c r="D10" s="96" t="n">
         <v>6</v>
       </c>
       <c r="E10" s="113" t="s">
@@ -1684,7 +1699,7 @@
       </c>
     </row>
     <row customHeight="1" ht="32.25" r="11" s="26" spans="1:11">
-      <c r="D11" s="98" t="n">
+      <c r="D11" s="96" t="n">
         <v>7</v>
       </c>
       <c r="E11" s="113" t="s">
@@ -1702,7 +1717,7 @@
       </c>
     </row>
     <row customHeight="1" ht="32.25" r="12" s="26" spans="1:11">
-      <c r="D12" s="98" t="n">
+      <c r="D12" s="96" t="n">
         <v>8</v>
       </c>
       <c r="E12" s="113" t="s">
@@ -1718,7 +1733,7 @@
       </c>
     </row>
     <row customHeight="1" ht="32.25" r="13" s="26" spans="1:11">
-      <c r="D13" s="98" t="n">
+      <c r="D13" s="96" t="n">
         <v>9</v>
       </c>
       <c r="E13" s="113" t="s">
@@ -1734,7 +1749,7 @@
       </c>
     </row>
     <row customHeight="1" ht="32.25" r="14" s="26" spans="1:11">
-      <c r="D14" s="98" t="n">
+      <c r="D14" s="96" t="n">
         <v>10</v>
       </c>
       <c r="E14" s="114" t="s">
@@ -1750,10 +1765,10 @@
       </c>
     </row>
     <row customHeight="1" ht="32.25" r="15" s="26" spans="1:11">
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="94" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="72" t="n">
@@ -1813,7 +1828,7 @@
       </c>
     </row>
     <row customHeight="1" ht="32.25" r="19" s="26" spans="1:11">
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="94" t="s">
         <v>37</v>
       </c>
       <c r="H19" s="76" t="n">
@@ -1845,7 +1860,7 @@
       </c>
     </row>
     <row customHeight="1" ht="30.75" r="21" s="26" spans="1:11">
-      <c r="E21" s="93" t="s">
+      <c r="E21" s="94" t="s">
         <v>41</v>
       </c>
       <c r="H21" s="76" t="n">
@@ -1877,7 +1892,7 @@
       </c>
     </row>
     <row customHeight="1" ht="39.75" r="23" s="26" spans="1:11">
-      <c r="E23" s="93" t="s">
+      <c r="E23" s="94" t="s">
         <v>43</v>
       </c>
       <c r="H23" s="76" t="n">
@@ -1892,19 +1907,19 @@
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="24" s="26" spans="1:11">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="97" t="s">
+      <c r="E24" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="97" t="s">
+      <c r="F24" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="97" t="s">
+      <c r="G24" s="95" t="s">
         <v>47</v>
       </c>
       <c r="K24" s="84" t="s">
@@ -1912,38 +1927,38 @@
       </c>
     </row>
     <row customHeight="1" ht="18" r="25" s="26" spans="1:11">
-      <c r="D25" s="99" t="n">
+      <c r="D25" s="97" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="98" t="n"/>
-      <c r="G25" s="98" t="n"/>
+      <c r="F25" s="96" t="n"/>
+      <c r="G25" s="96" t="n"/>
       <c r="K25" s="45" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="26" s="26" spans="1:11">
-      <c r="D26" s="99" t="n">
+      <c r="D26" s="97" t="n">
         <v>2</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="99" t="n"/>
-      <c r="G26" s="99" t="n"/>
+      <c r="F26" s="97" t="n"/>
+      <c r="G26" s="97" t="n"/>
       <c r="K26" s="45" t="n"/>
     </row>
     <row customHeight="1" ht="13.5" r="27" s="26" spans="1:11">
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="95" t="s">
+      <c r="D27" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="95" t="s">
+      <c r="E27" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="95" t="s">
+      <c r="H27" s="93" t="s">
         <v>53</v>
       </c>
       <c r="K27" s="32" t="s">
@@ -1959,7 +1974,7 @@
       </c>
       <c r="F28" s="116" t="n"/>
       <c r="G28" s="117" t="n"/>
-      <c r="H28" s="96" t="n">
+      <c r="H28" s="91" t="n">
         <v>42528</v>
       </c>
       <c r="K28" s="30" t="n"/>
@@ -1973,7 +1988,7 @@
       </c>
       <c r="F29" s="116" t="n"/>
       <c r="G29" s="117" t="n"/>
-      <c r="H29" s="96" t="n">
+      <c r="H29" s="91" t="n">
         <v>42529</v>
       </c>
       <c r="K29" s="30" t="n"/>
@@ -1987,7 +2002,7 @@
       </c>
       <c r="F30" s="116" t="n"/>
       <c r="G30" s="117" t="n"/>
-      <c r="H30" s="96" t="s">
+      <c r="H30" s="91" t="s">
         <v>13</v>
       </c>
       <c r="K30" s="30" t="n"/>
@@ -2015,7 +2030,7 @@
       <c r="E32" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="101" t="n">
+      <c r="H32" s="90" t="n">
         <v>42533</v>
       </c>
       <c r="K32" s="30" t="s">
@@ -2029,7 +2044,7 @@
       <c r="E33" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="101" t="n">
+      <c r="H33" s="90" t="n">
         <v>42537</v>
       </c>
       <c r="K33" s="30" t="s">
@@ -2058,23 +2073,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="B27:C33"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="D15:D23"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E4:G4"/>
@@ -2091,6 +2089,23 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E19:G19"/>
+    <mergeCell ref="D15:D23"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="B27:C33"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H30:J30"/>
   </mergeCells>
   <conditionalFormatting sqref="K25:K26">
     <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
@@ -2131,7 +2146,7 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="22.5" r="3" s="26" spans="1:12">
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="104" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2153,7 +2168,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24.75" r="5" s="26" spans="1:12">
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="103" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="49" t="s">
@@ -2162,7 +2177,7 @@
       <c r="H5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="105" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="49" t="s">
@@ -2446,7 +2461,7 @@
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="21" s="26" spans="1:12">
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="103" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="49" t="s">
@@ -2458,7 +2473,7 @@
       <c r="I21" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="103" t="s">
+      <c r="J21" s="105" t="s">
         <v>47</v>
       </c>
       <c r="L21" s="68" t="s">
@@ -2475,7 +2490,7 @@
       <c r="I22" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="104" t="s">
+      <c r="J22" s="106" t="s">
         <v>84</v>
       </c>
       <c r="L22" s="69" t="n"/>
@@ -2485,11 +2500,11 @@
         <v>2</v>
       </c>
       <c r="H23" s="55" t="n"/>
-      <c r="I23" s="105" t="n"/>
+      <c r="I23" s="103" t="n"/>
       <c r="L23" s="70" t="n"/>
     </row>
     <row customHeight="1" ht="14.25" r="24" s="26" spans="1:12">
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="103" t="s">
         <v>51</v>
       </c>
       <c r="G24" s="56" t="s">
@@ -2498,7 +2513,7 @@
       <c r="H24" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="106" t="s">
+      <c r="I24" s="107" t="s">
         <v>53</v>
       </c>
       <c r="L24" s="56" t="s">
@@ -2512,7 +2527,7 @@
       <c r="H25" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="107" t="n">
+      <c r="I25" s="102" t="n">
         <v>42541</v>
       </c>
       <c r="L25" s="58" t="s">
@@ -2524,7 +2539,7 @@
       <c r="H26" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="107" t="n">
+      <c r="I26" s="102" t="n">
         <v>42542</v>
       </c>
       <c r="L26" s="58" t="n"/>
@@ -2536,7 +2551,7 @@
       <c r="H27" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="I27" s="107" t="n">
+      <c r="I27" s="102" t="n">
         <v>42544</v>
       </c>
       <c r="L27" s="66" t="n"/>
@@ -2548,7 +2563,7 @@
       <c r="H28" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="107" t="n">
+      <c r="I28" s="102" t="n">
         <v>42544</v>
       </c>
       <c r="L28" s="66" t="s">
@@ -2562,7 +2577,7 @@
       <c r="H29" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="107" t="n">
+      <c r="I29" s="102" t="n">
         <v>42544</v>
       </c>
       <c r="L29" s="66" t="n"/>
@@ -2574,7 +2589,7 @@
       <c r="H30" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="107" t="n">
+      <c r="I30" s="102" t="n">
         <v>42544</v>
       </c>
       <c r="L30" s="66" t="n"/>
@@ -2586,7 +2601,7 @@
       <c r="H31" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="107" t="n">
+      <c r="I31" s="102" t="n">
         <v>42544</v>
       </c>
       <c r="L31" s="66" t="n"/>
@@ -2598,13 +2613,18 @@
       <c r="H32" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="107" t="n">
+      <c r="I32" s="102" t="n">
         <v>42544</v>
       </c>
       <c r="L32" s="66" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="I32:K32"/>
@@ -2616,11 +2636,6 @@
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="I29:K29"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.510416666666667" header="0.510416666666667" left="0.697916666666667" right="0.697916666666667" top="0.75"/>
   <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
@@ -2651,7 +2666,7 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="22.5" r="2" s="26" spans="1:10">
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="98" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2659,7 +2674,7 @@
       <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="99" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="35" t="n"/>
@@ -2673,10 +2688,10 @@
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="4" s="26" spans="1:10">
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="100" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -2685,7 +2700,7 @@
       <c r="G4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="100" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -2809,13 +2824,13 @@
       <c r="C11" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F11" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="97" t="s">
+      <c r="G11" s="95" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="108" t="s">
@@ -2826,7 +2841,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="E12" s="99" t="n">
+      <c r="E12" s="97" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
@@ -2862,24 +2877,24 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="E14" s="99" t="n">
+      <c r="E14" s="97" t="n">
         <v>3</v>
       </c>
       <c r="F14" s="16" t="n"/>
-      <c r="G14" s="99" t="n"/>
+      <c r="G14" s="97" t="n"/>
       <c r="J14" s="45" t="n"/>
     </row>
     <row customHeight="1" ht="13.5" r="15" s="26" spans="1:10">
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="95" t="s">
+      <c r="E15" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="95" t="s">
+      <c r="F15" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="95" t="s">
+      <c r="G15" s="93" t="s">
         <v>53</v>
       </c>
       <c r="J15" s="32" t="s">
@@ -2988,7 +3003,7 @@
   <dimension ref="B3:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -3006,7 +3021,7 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="22.5" r="3" s="26" spans="1:9">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="98" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3032,10 +3047,10 @@
       </c>
     </row>
     <row customHeight="1" ht="13.5" r="5" s="26" spans="1:9">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="100" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -3044,7 +3059,7 @@
       <c r="F5" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="89" t="s">
+      <c r="G5" s="100" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -3061,11 +3076,11 @@
       <c r="E6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="10" t="n">
-        <v>43114</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <v>43115</v>
+      <c r="F6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>19</v>
@@ -3076,13 +3091,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="10" t="n">
-        <v>43116</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>43116</v>
+        <v>113</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>19</v>
@@ -3093,14 +3108,14 @@
         <v>3</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="10" t="n">
-        <v>43117</v>
+        <v>115</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="G8" s="10" t="n"/>
-      <c r="H8" s="10" t="n">
-        <v>43117</v>
+      <c r="H8" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>19</v>
@@ -3111,14 +3126,14 @@
         <v>4</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="10" t="n">
-        <v>43118</v>
+        <v>117</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="G9" s="10" t="n"/>
-      <c r="H9" s="10" t="n">
-        <v>43118</v>
+      <c r="H9" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>19</v>
@@ -3249,19 +3264,19 @@
       <c r="I23" s="30" t="n"/>
     </row>
     <row customHeight="1" ht="13.5" r="24" s="26" spans="1:9">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="97" t="s">
+      <c r="E24" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="97" t="s">
+      <c r="F24" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="97" t="s">
+      <c r="G24" s="95" t="s">
         <v>47</v>
       </c>
       <c r="I24" s="31" t="s">
@@ -3269,7 +3284,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="D25" s="99" t="n">
+      <c r="D25" s="97" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="16" t="n"/>
@@ -3279,16 +3294,16 @@
       <c r="I25" s="30" t="n"/>
     </row>
     <row customHeight="1" ht="13.5" r="26" s="26" spans="1:9">
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="95" t="s">
+      <c r="E26" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="95" t="s">
+      <c r="F26" s="93" t="s">
         <v>53</v>
       </c>
       <c r="I26" s="32" t="s">
